--- a/Excel/TimeSpace.xlsx
+++ b/Excel/TimeSpace.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3EDAEF-801D-430B-9BB6-73FA669CE899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E81981-B6E6-434B-B7D3-FA2876FDC4AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
+    <workbookView xWindow="-270" yWindow="2610" windowWidth="14025" windowHeight="10680" xr2:uid="{A097B07C-A7EB-47A4-9D6C-0246EAD30699}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeSpacePositionTable" sheetId="2" r:id="rId1"/>
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>requiredPowerLevel|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stringId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,6 +61,10 @@
   </si>
   <si>
     <t>TimeSpaceUI_ExtraUltra</t>
+  </si>
+  <si>
+    <t>requiredAccumulatedPowerLevel|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -453,7 +453,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -470,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -487,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -504,7 +504,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -521,7 +521,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -538,7 +538,7 @@
         <v>1.2</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -555,7 +555,7 @@
         <v>1.2</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -572,7 +572,7 @@
         <v>1.3</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -589,7 +589,7 @@
         <v>1.3</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -606,7 +606,7 @@
         <v>1.5</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
